--- a/data/trans_dic/P56$familiarvive-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1270421260538808</v>
+        <v>0.1256264685644048</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0757215739137892</v>
+        <v>0.08884427426085291</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03865923205211295</v>
+        <v>0.02764294721344959</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2888082935036255</v>
+        <v>0.2759514294354529</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2255460430459163</v>
+        <v>0.2141023815475094</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1884678382556846</v>
+        <v>0.1905435682310745</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1804137444352455</v>
+        <v>0.181210904462338</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2796397663407317</v>
+        <v>0.2759197531294219</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.178781452373959</v>
+        <v>0.1815077243316145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.187460401146107</v>
+        <v>0.1901410872404304</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1621200050323884</v>
+        <v>0.1589576176172003</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4901250268941315</v>
+        <v>0.4916462962718936</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2606683332668549</v>
+        <v>0.3008735516102775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4043442037619219</v>
+        <v>0.4175640879437937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2972715009904523</v>
+        <v>0.2698300884993229</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5857004237903455</v>
+        <v>0.567338925819597</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.462869446976122</v>
+        <v>0.4413642798841491</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4290931694452738</v>
+        <v>0.4338201389488908</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3359141653136746</v>
+        <v>0.3401164238470938</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5155820440037235</v>
+        <v>0.5150446275716045</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3668410759317626</v>
+        <v>0.3626683534598776</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3748306986212817</v>
+        <v>0.39322217504951</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2866818165263587</v>
+        <v>0.2864739362937</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09399707272481957</v>
+        <v>0.08781858301464258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04972238428470148</v>
+        <v>0.04667718231195515</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04711518943230355</v>
+        <v>0.04651385496119502</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09484016209186555</v>
+        <v>0.1291770645049928</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2068668964153569</v>
+        <v>0.2027948532192486</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1802235683045389</v>
+        <v>0.177517389233731</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1213539160588394</v>
+        <v>0.1228668296083688</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1127387652074721</v>
+        <v>0.1112649246732279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2060048081459797</v>
+        <v>0.2049604811225184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1723507234310661</v>
+        <v>0.1720328001366895</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1195673410166952</v>
+        <v>0.1137739299441748</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3870236309136331</v>
+        <v>0.3321213885519639</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5434000528341658</v>
+        <v>0.5365716118958613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3995824087511914</v>
+        <v>0.4097416013918517</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2062805490003512</v>
+        <v>0.2298520250617772</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4684873768890699</v>
+        <v>0.4822702815444649</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.410441285091265</v>
+        <v>0.4152794842436472</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4988598337696287</v>
+        <v>0.5021505148937309</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2365565102870177</v>
+        <v>0.237233434929594</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3812797925641751</v>
+        <v>0.3736103640771161</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4039197165427075</v>
+        <v>0.3979590234919164</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4151447685573305</v>
+        <v>0.4307461693515024</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2062358960861171</v>
+        <v>0.2057521195987225</v>
       </c>
     </row>
     <row r="10">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09534395960701338</v>
+        <v>0.09154851227581305</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05832477576731947</v>
+        <v>0.06135412267969821</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2679260146230131</v>
+        <v>0.3424278762038211</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02967888821152831</v>
+        <v>0.05356056479687708</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1391479688971259</v>
+        <v>0.1293965761780647</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.166017459839266</v>
+        <v>0.1649902049016696</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2092755870659132</v>
+        <v>0.2096151223626295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08856940221374482</v>
+        <v>0.08210307821355703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09728592648601689</v>
+        <v>0.1086646596330915</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1515079312451033</v>
+        <v>0.1456877950664872</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5340690307025671</v>
+        <v>0.4395195164351122</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5034622315190797</v>
+        <v>0.4805050471704592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3714088247890494</v>
+        <v>0.3160219202836693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3029437038929925</v>
+        <v>0.2979617222035187</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8429574016556023</v>
+        <v>0.8611836405181572</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2957413253379709</v>
+        <v>0.3338609089939324</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.457639604367806</v>
+        <v>0.464533858798198</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3333064719985889</v>
+        <v>0.327972856184538</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6272351993283494</v>
+        <v>0.6267596587051314</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2978987687326069</v>
+        <v>0.2916333034696204</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3713436885575949</v>
+        <v>0.3667121012422947</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2927562097982269</v>
+        <v>0.2985577294873683</v>
       </c>
     </row>
     <row r="13">
@@ -1123,31 +1123,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04163106405075372</v>
+        <v>0.03813146262071045</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1104625993376458</v>
+        <v>0.1115714055755528</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1349489616055349</v>
+        <v>0.1301796479670436</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08904377014847804</v>
+        <v>0.08822334355368502</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02141338809177692</v>
+        <v>0.02112417176355509</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1299905047288827</v>
+        <v>0.1245845812576113</v>
       </c>
     </row>
     <row r="15">
@@ -1159,37 +1159,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.6572496824124663</v>
+        <v>0.8028071038837288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3210636008212229</v>
+        <v>0.3073322168783943</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.319311143075366</v>
+        <v>0.3075596520329867</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8261133609410598</v>
+        <v>0.8466921775269232</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5203066351189597</v>
+        <v>0.5069312362549101</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2815719936261188</v>
+        <v>0.238188265885141</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3304765677063075</v>
+        <v>0.3301523539060479</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7802823280377602</v>
+        <v>0.7907169919821427</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4568759550746941</v>
+        <v>0.4383690850115042</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.207807654232736</v>
+        <v>0.2234694021813924</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2809404338601196</v>
+        <v>0.2859775849590485</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1006918883190051</v>
+        <v>0.09909397119004769</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08832253973737472</v>
+        <v>0.09152502377886473</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2960048307100975</v>
+        <v>0.2886379966177863</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2178954217277878</v>
+        <v>0.2139794671000947</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2003949344821241</v>
+        <v>0.1944551853187874</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.181240006505877</v>
+        <v>0.1808517130799051</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2545697705646398</v>
+        <v>0.2582085798095107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2101269578734591</v>
+        <v>0.2085659638264051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1844466333014488</v>
+        <v>0.1847979129183368</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1610504429188371</v>
+        <v>0.1624032136353335</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3219766390201367</v>
+        <v>0.3236967057623559</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2438933772111715</v>
+        <v>0.2569763804771389</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5155542782630845</v>
+        <v>0.5176969273250723</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3450781681727986</v>
+        <v>0.3401087910304616</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3539177831679556</v>
+        <v>0.3520028770387876</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2544852402039191</v>
+        <v>0.2567795997513733</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4251592577188015</v>
+        <v>0.4205469346904753</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3152303118621481</v>
+        <v>0.3135152100553865</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3001980338764265</v>
+        <v>0.2976399803607218</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2237180628145727</v>
+        <v>0.227434690330643</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2827</v>
+        <v>2795</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1818</v>
+        <v>2133</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>963</v>
+        <v>689</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14121</v>
+        <v>13493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15546</v>
+        <v>14757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12347</v>
+        <v>12483</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13005</v>
+        <v>13062</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19895</v>
+        <v>19630</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>16895</v>
+        <v>17153</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16782</v>
+        <v>17022</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15726</v>
+        <v>15419</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10905</v>
+        <v>10939</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6667</v>
+        <v>7695</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9708</v>
+        <v>10025</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7407</v>
+        <v>6723</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28638</v>
+        <v>27740</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31903</v>
+        <v>30421</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28112</v>
+        <v>28422</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24214</v>
+        <v>24517</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36681</v>
+        <v>36642</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34667</v>
+        <v>34273</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33556</v>
+        <v>35203</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27808</v>
+        <v>27788</v>
       </c>
     </row>
     <row r="8">
@@ -1779,37 +1779,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2427</v>
+        <v>2267</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>897</v>
+        <v>842</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1811</v>
+        <v>1788</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2217</v>
+        <v>3020</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15827</v>
+        <v>15516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7736</v>
+        <v>7620</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12224</v>
+        <v>12376</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4225</v>
+        <v>4170</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21080</v>
+        <v>20973</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10508</v>
+        <v>10489</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16639</v>
+        <v>15833</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5456</v>
+        <v>4682</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14029</v>
+        <v>13853</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7211</v>
+        <v>7395</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7929</v>
+        <v>8835</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10953</v>
+        <v>11275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31403</v>
+        <v>31773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21413</v>
+        <v>21554</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23828</v>
+        <v>23896</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14289</v>
+        <v>14001</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41332</v>
+        <v>40722</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>25311</v>
+        <v>26263</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28701</v>
+        <v>28633</v>
       </c>
     </row>
     <row r="12">
@@ -1959,37 +1959,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1977</v>
+        <v>1898</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1350</v>
+        <v>1421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3608</v>
+        <v>4611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1160</v>
+        <v>2093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5771</v>
+        <v>5367</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9575</v>
+        <v>9516</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4764</v>
+        <v>4772</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5298</v>
+        <v>4911</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5322</v>
+        <v>5945</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12246</v>
+        <v>11776</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4967</v>
+        <v>4088</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10438</v>
+        <v>9962</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4914</v>
+        <v>4182</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7014</v>
+        <v>6899</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11350</v>
+        <v>11596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11559</v>
+        <v>13049</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18981</v>
+        <v>19267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19224</v>
+        <v>18916</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14279</v>
+        <v>14268</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17820</v>
+        <v>17445</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20315</v>
+        <v>20062</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23663</v>
+        <v>24132</v>
       </c>
     </row>
     <row r="16">
@@ -2143,31 +2143,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>919</v>
+        <v>842</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2167</v>
+        <v>2189</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5588</v>
+        <v>5391</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2315</v>
+        <v>2293</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8251</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="19">
@@ -2179,37 +2179,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4192</v>
+        <v>5120</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5139</v>
+        <v>4919</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7047</v>
+        <v>6788</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4542</v>
+        <v>4655</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10207</v>
+        <v>9944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5841</v>
+        <v>4941</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13685</v>
+        <v>13671</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4931</v>
+        <v>4997</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11876</v>
+        <v>11395</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7637</v>
+        <v>8213</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>17833</v>
+        <v>18153</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4679</v>
+        <v>4605</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6297</v>
+        <v>6525</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27007</v>
+        <v>26335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>44480</v>
+        <v>43681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34199</v>
+        <v>33185</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49278</v>
+        <v>49172</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35056</v>
+        <v>35557</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>59390</v>
+        <v>58949</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44627</v>
+        <v>44712</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>61275</v>
+        <v>61790</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14961</v>
+        <v>15041</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17388</v>
+        <v>18321</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>47038</v>
+        <v>47234</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>70443</v>
+        <v>69428</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>60399</v>
+        <v>60072</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>69193</v>
+        <v>69817</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>58547</v>
+        <v>57911</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>89097</v>
+        <v>88612</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>72634</v>
+        <v>72015</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>85118</v>
+        <v>86532</v>
       </c>
     </row>
     <row r="24">
